--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_12_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53411.71301172594</v>
+        <v>10628930.88933345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53411.71301172594</v>
+        <v>10628930.88933345</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3484.878520759703</v>
+        <v>504456.4268399836</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3484.878520759703</v>
+        <v>504456.4268399836</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342319043.001186</v>
+        <v>54765694.72581559</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11040.2225034919</v>
+        <v>1211044.92916482</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21375.59540463323</v>
+        <v>2312395.947272273</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31710.96830577455</v>
+        <v>3413746.965379728</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42512.79428803366</v>
+        <v>4532816.358094992</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53228.61784605034</v>
+        <v>5634771.268386013</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63944.44140406702</v>
+        <v>6736726.178677033</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74660.26496208369</v>
+        <v>7838681.088968049</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85376.08852010035</v>
+        <v>8940635.999259064</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96091.91207811703</v>
+        <v>10042590.90955008</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106807.7356361337</v>
+        <v>11144545.8198411</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117523.5591941504</v>
+        <v>12246500.73013212</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127772.9296710492</v>
+        <v>13330737.26581534</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>138108.3025721905</v>
+        <v>14432088.2839228</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>149015.1033272631</v>
+        <v>15447273.04997575</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159921.9040823357</v>
+        <v>16462457.81602869</v>
       </c>
     </row>
   </sheetData>
